--- a/5.shipping cost based on summary.xlsx
+++ b/5.shipping cost based on summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\SCM\Ship routine and cost\Shipping route cost and LTautomatic sorting（main）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F1EA0A-5E5C-4AA3-A182-C78C0BD40B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ED2A9B-8B1F-44D2-BC58-E0C7E4250E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="routine" sheetId="8" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="248">
   <si>
     <t>WADG</t>
   </si>
@@ -546,9 +546,6 @@
   </si>
   <si>
     <t>2300HKD/SET</t>
-  </si>
-  <si>
-    <t>Truck times</t>
   </si>
   <si>
     <t>Capacity</t>
@@ -788,6 +785,14 @@
   </si>
   <si>
     <t>Export</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Truck times</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加费用</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1032,7 +1037,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1103,14 +1108,25 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1118,7 +1134,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1127,18 +1143,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2491,7 +2499,7 @@
   </sheetPr>
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
@@ -2748,7 +2756,7 @@
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
       <c r="F12" s="47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
@@ -2776,7 +2784,7 @@
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
-      <c r="L13" s="52" t="s">
+      <c r="L13" s="56" t="s">
         <v>4</v>
       </c>
       <c r="M13" s="36"/>
@@ -2799,7 +2807,7 @@
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
-      <c r="L14" s="53"/>
+      <c r="L14" s="57"/>
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
@@ -3084,222 +3092,222 @@
       <c r="S27" s="36"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="61"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
     </row>
     <row r="31" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="62" t="s">
-        <v>230</v>
-      </c>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="62" t="s">
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+    </row>
+    <row r="33" spans="4:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+    </row>
+    <row r="34" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+    </row>
+    <row r="35" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+    </row>
+    <row r="36" spans="4:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+    </row>
+    <row r="37" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="61"/>
-    </row>
-    <row r="33" spans="4:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="61"/>
-    </row>
-    <row r="34" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61"/>
-    </row>
-    <row r="35" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="61"/>
-    </row>
-    <row r="36" spans="4:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="61"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="61"/>
-    </row>
-    <row r="37" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="62" t="s">
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="62" t="s">
-        <v>242</v>
-      </c>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="61"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
     </row>
     <row r="38" spans="4:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="63"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="61"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
     </row>
     <row r="39" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
     </row>
     <row r="40" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="61"/>
-      <c r="N40" s="61"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="61"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
     </row>
     <row r="41" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="61"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="61"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
     </row>
     <row r="42" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="61"/>
-      <c r="M42" s="61"/>
-      <c r="N42" s="61"/>
-      <c r="O42" s="61"/>
-      <c r="P42" s="61"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3321,10 +3329,10 @@
   <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="A15:XFD18"/>
+      <selection pane="bottomRight" activeCell="M27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3444,13 +3452,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="48" t="s">
         <v>224</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>225</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>13</v>
@@ -3462,7 +3470,7 @@
         <v>15</v>
       </c>
       <c r="L2" s="48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M2" s="23" t="s">
         <v>17</v>
@@ -3522,7 +3530,7 @@
         <v>35</v>
       </c>
       <c r="AF2" s="50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG2" s="17" t="s">
         <v>36</v>
@@ -3532,40 +3540,40 @@
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="62">
         <f>SUM(N4:AH4)</f>
         <v>23154.3</v>
       </c>
@@ -3613,7 +3621,7 @@
         <v>53</v>
       </c>
       <c r="AF3" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG3" s="25" t="s">
         <v>54</v>
@@ -3621,18 +3629,18 @@
       <c r="AH3" s="25"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="54"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="62"/>
       <c r="M4" s="25" t="s">
         <v>55</v>
       </c>
@@ -3685,40 +3693,40 @@
       <c r="AH4" s="25"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="54" t="s">
+      <c r="A5" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="54">
+      <c r="L5" s="62">
         <f>SUM(N6:AH6)</f>
         <v>30116.7</v>
       </c>
@@ -3766,7 +3774,7 @@
         <v>53</v>
       </c>
       <c r="AF5" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG5" s="25" t="s">
         <v>61</v>
@@ -3774,18 +3782,18 @@
       <c r="AH5" s="25"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="54"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="62"/>
       <c r="M6" s="25" t="s">
         <v>55</v>
       </c>
@@ -3838,40 +3846,40 @@
       <c r="AH6" s="25"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="54" t="s">
+      <c r="A7" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="54" t="s">
+      <c r="I7" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="55" t="s">
+      <c r="J7" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="55" t="s">
+      <c r="K7" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="54">
+      <c r="L7" s="62">
         <f>SUM(N8:AH8)</f>
         <v>20970.3</v>
       </c>
@@ -3917,7 +3925,7 @@
         <v>53</v>
       </c>
       <c r="AF7" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG7" s="25" t="s">
         <v>67</v>
@@ -3925,18 +3933,18 @@
       <c r="AH7" s="25"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="54"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="62"/>
       <c r="M8" s="25" t="s">
         <v>55</v>
       </c>
@@ -3987,40 +3995,40 @@
       <c r="AH8" s="25"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A9" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="54" t="s">
+      <c r="A9" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="54">
+      <c r="L9" s="62">
         <f>SUM(N10:AH10)</f>
         <v>27971.7</v>
       </c>
@@ -4066,7 +4074,7 @@
         <v>53</v>
       </c>
       <c r="AF9" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG9" s="25" t="s">
         <v>71</v>
@@ -4074,18 +4082,18 @@
       <c r="AH9" s="25"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="54"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="62"/>
       <c r="M10" s="25" t="s">
         <v>55</v>
       </c>
@@ -4136,40 +4144,40 @@
       <c r="AH10" s="25"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A11" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="54" t="s">
+      <c r="I11" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="55" t="s">
+      <c r="J11" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="62">
         <f>SUM(N12:AH12)</f>
         <v>17556.3</v>
       </c>
@@ -4211,7 +4219,7 @@
       </c>
       <c r="AE11" s="25"/>
       <c r="AF11" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG11" s="25" t="s">
         <v>80</v>
@@ -4221,18 +4229,18 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="54"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="62"/>
       <c r="M12" s="25" t="s">
         <v>55</v>
       </c>
@@ -4281,40 +4289,40 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A13" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="54" t="s">
+      <c r="A13" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="54" t="s">
+      <c r="I13" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="55" t="s">
+      <c r="J13" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="55" t="s">
+      <c r="K13" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="54">
+      <c r="L13" s="62">
         <f>SUM(N14:AH14)</f>
         <v>27209.7</v>
       </c>
@@ -4356,7 +4364,7 @@
       </c>
       <c r="AE13" s="25"/>
       <c r="AF13" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG13" s="25" t="s">
         <v>86</v>
@@ -4366,18 +4374,18 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="54"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="62"/>
       <c r="M14" s="25" t="s">
         <v>55</v>
       </c>
@@ -4426,40 +4434,40 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A15" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="54" t="s">
+      <c r="A15" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="54" t="s">
+      <c r="H15" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="54" t="s">
+      <c r="I15" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="55" t="s">
+      <c r="J15" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="55" t="s">
+      <c r="K15" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="L15" s="54">
+      <c r="L15" s="62">
         <f>SUM(N16:AH16)</f>
         <v>15680</v>
       </c>
@@ -4499,24 +4507,24 @@
       <c r="AD15" s="25"/>
       <c r="AE15" s="25"/>
       <c r="AF15" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG15" s="25"/>
       <c r="AH15" s="25"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="54"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="62"/>
       <c r="M16" s="25" t="s">
         <v>55</v>
       </c>
@@ -4559,40 +4567,40 @@
       <c r="AH16" s="25"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A17" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="54" t="s">
+      <c r="A17" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="54" t="s">
+      <c r="H17" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="54" t="s">
+      <c r="I17" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="55" t="s">
+      <c r="J17" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="55" t="s">
+      <c r="K17" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="L17" s="54">
+      <c r="L17" s="62">
         <f>SUM(N18:AH18)</f>
         <v>23750</v>
       </c>
@@ -4632,24 +4640,24 @@
       <c r="AD17" s="25"/>
       <c r="AE17" s="25"/>
       <c r="AF17" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG17" s="25"/>
       <c r="AH17" s="25"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="54"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="62"/>
       <c r="M18" s="25" t="s">
         <v>55</v>
       </c>
@@ -4692,40 +4700,40 @@
       <c r="AH18" s="25"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A19" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="54" t="s">
+      <c r="A19" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="54" t="s">
+      <c r="G19" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="54" t="s">
+      <c r="H19" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="54" t="s">
+      <c r="I19" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="55" t="s">
+      <c r="J19" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="55" t="s">
+      <c r="K19" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="L19" s="54">
+      <c r="L19" s="62">
         <f>SUM(N20:AH20)</f>
         <v>44533</v>
       </c>
@@ -4769,24 +4777,24 @@
       <c r="AD19" s="25"/>
       <c r="AE19" s="25"/>
       <c r="AF19" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG19" s="25"/>
       <c r="AH19" s="25"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="54"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="62"/>
       <c r="M20" s="25" t="s">
         <v>55</v>
       </c>
@@ -4833,40 +4841,40 @@
       <c r="AH20" s="25"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A21" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="54" t="s">
+      <c r="A21" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="62">
         <v>5.4</v>
       </c>
-      <c r="G21" s="54">
+      <c r="G21" s="62">
         <v>1</v>
       </c>
-      <c r="H21" s="54">
+      <c r="H21" s="62">
         <v>500</v>
       </c>
-      <c r="I21" s="54" t="s">
+      <c r="I21" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="J21" s="55" t="s">
+      <c r="J21" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="55" t="s">
+      <c r="K21" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="L21" s="54">
+      <c r="L21" s="62">
         <f>SUM(N22:AH22)</f>
         <v>10626.4</v>
       </c>
@@ -4918,7 +4926,7 @@
       <c r="AD21" s="25"/>
       <c r="AE21" s="25"/>
       <c r="AF21" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG21" s="25" t="s">
         <v>119</v>
@@ -4926,18 +4934,18 @@
       <c r="AH21" s="25"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="54"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="62"/>
       <c r="M22" s="25" t="s">
         <v>120</v>
       </c>
@@ -4997,40 +5005,40 @@
       <c r="AH22" s="25"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A23" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="54" t="s">
+      <c r="A23" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="54" t="s">
+      <c r="F23" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="54" t="s">
+      <c r="G23" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="54" t="s">
+      <c r="H23" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="54" t="s">
+      <c r="I23" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="J23" s="55" t="s">
+      <c r="J23" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K23" s="55" t="s">
+      <c r="K23" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="L23" s="54">
+      <c r="L23" s="62">
         <f>SUM(N24:AH24)</f>
         <v>5813</v>
       </c>
@@ -5062,24 +5070,24 @@
       <c r="AD23" s="25"/>
       <c r="AE23" s="25"/>
       <c r="AF23" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG23" s="25"/>
       <c r="AH23" s="25"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="54"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="62"/>
       <c r="M24" s="25" t="s">
         <v>127</v>
       </c>
@@ -5114,40 +5122,40 @@
       <c r="AH24" s="25"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A25" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="54" t="s">
+      <c r="A25" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="54" t="s">
+      <c r="F25" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="54" t="s">
+      <c r="G25" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="54" t="s">
+      <c r="H25" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="54" t="s">
+      <c r="I25" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="J25" s="55" t="s">
+      <c r="J25" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K25" s="55" t="s">
+      <c r="K25" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="L25" s="54">
+      <c r="L25" s="62">
         <f>SUM(N26:AH26)</f>
         <v>6782</v>
       </c>
@@ -5179,24 +5187,24 @@
       <c r="AD25" s="25"/>
       <c r="AE25" s="25"/>
       <c r="AF25" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG25" s="25"/>
       <c r="AH25" s="25"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="54"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="62"/>
       <c r="M26" s="25" t="s">
         <v>127</v>
       </c>
@@ -5231,40 +5239,40 @@
       <c r="AH26" s="25"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A27" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="54" t="s">
+      <c r="A27" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="E27" s="54" t="s">
+      <c r="E27" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="54" t="s">
+      <c r="F27" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="54" t="s">
+      <c r="G27" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="54" t="s">
+      <c r="H27" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="54" t="s">
+      <c r="I27" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="J27" s="55" t="s">
+      <c r="J27" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="55" t="s">
+      <c r="K27" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="L27" s="54">
+      <c r="L27" s="62">
         <f>SUM(N28:AH28)</f>
         <v>8191</v>
       </c>
@@ -5298,24 +5306,24 @@
       <c r="AD27" s="25"/>
       <c r="AE27" s="25"/>
       <c r="AF27" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG27" s="25"/>
       <c r="AH27" s="25"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="54"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="62"/>
       <c r="M28" s="25" t="s">
         <v>127</v>
       </c>
@@ -5352,40 +5360,40 @@
       <c r="AH28" s="25"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A29" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="54" t="s">
+      <c r="A29" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="E29" s="54" t="s">
+      <c r="E29" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="F29" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="54" t="s">
+      <c r="G29" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="54" t="s">
+      <c r="H29" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="54" t="s">
+      <c r="I29" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="55" t="s">
+      <c r="J29" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K29" s="55" t="s">
+      <c r="K29" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="L29" s="54">
+      <c r="L29" s="62">
         <f>SUM(N30:AH30)</f>
         <v>8991</v>
       </c>
@@ -5419,24 +5427,24 @@
       <c r="AD29" s="25"/>
       <c r="AE29" s="25"/>
       <c r="AF29" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG29" s="25"/>
       <c r="AH29" s="25"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="54"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="62"/>
       <c r="M30" s="25" t="s">
         <v>127</v>
       </c>
@@ -5473,40 +5481,40 @@
       <c r="AH30" s="25"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A31" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="54" t="s">
+      <c r="A31" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="54">
+      <c r="F31" s="62">
         <v>5.4</v>
       </c>
-      <c r="G31" s="54">
+      <c r="G31" s="62">
         <v>2</v>
       </c>
-      <c r="H31" s="54">
+      <c r="H31" s="62">
         <v>500</v>
       </c>
-      <c r="I31" s="54" t="s">
+      <c r="I31" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="J31" s="55" t="s">
+      <c r="J31" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K31" s="55" t="s">
+      <c r="K31" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="L31" s="54">
+      <c r="L31" s="62">
         <f>SUM(N32:AH32)</f>
         <v>4963</v>
       </c>
@@ -5540,24 +5548,24 @@
       <c r="AD31" s="25"/>
       <c r="AE31" s="25"/>
       <c r="AF31" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG31" s="25"/>
       <c r="AH31" s="25"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="54"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="62"/>
       <c r="M32" s="25" t="s">
         <v>127</v>
       </c>
@@ -5595,38 +5603,38 @@
       <c r="AH32" s="25"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A33" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="54" t="s">
+      <c r="A33" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="54" t="s">
+      <c r="D33" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="54">
+      <c r="F33" s="62">
         <v>5.4</v>
       </c>
-      <c r="G33" s="54">
-        <v>3</v>
-      </c>
-      <c r="H33" s="54">
+      <c r="G33" s="62">
+        <v>3</v>
+      </c>
+      <c r="H33" s="62">
         <v>500</v>
       </c>
-      <c r="I33" s="54"/>
-      <c r="J33" s="55" t="s">
+      <c r="I33" s="62"/>
+      <c r="J33" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="K33" s="55" t="s">
+      <c r="K33" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="L33" s="54">
+      <c r="L33" s="62">
         <f>SUM(N34:AH34)</f>
         <v>4090</v>
       </c>
@@ -5660,24 +5668,24 @@
       <c r="AD33" s="25"/>
       <c r="AE33" s="25"/>
       <c r="AF33" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG33" s="25"/>
       <c r="AH33" s="25"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="54"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="62"/>
       <c r="M34" s="25" t="s">
         <v>127</v>
       </c>
@@ -5717,6 +5725,174 @@
   </sheetData>
   <autoFilter ref="A2:AH34" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="192">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K21:K22"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="K27:K28"/>
@@ -5741,174 +5917,6 @@
     <mergeCell ref="L33:L34"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5921,7 +5929,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="L5" sqref="L5:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5992,7 +6000,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>13</v>
@@ -6032,40 +6040,40 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="60">
         <v>5.4</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="60">
         <v>1000</v>
       </c>
-      <c r="H3" s="57" t="s">
-        <v>232</v>
-      </c>
-      <c r="I3" s="55" t="s">
+      <c r="H3" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="I3" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="L3" s="55">
+      <c r="L3" s="60">
         <f>SUM(N4:T4)</f>
         <v>11732.400000000001</v>
       </c>
@@ -6093,18 +6101,18 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
       <c r="M4" s="26" t="s">
         <v>153</v>
       </c>
@@ -6132,40 +6140,40 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="55" t="s">
+      <c r="A5" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="60">
         <v>5.4</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="60">
         <v>1000</v>
       </c>
-      <c r="H5" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="I5" s="55" t="s">
+      <c r="H5" s="65" t="s">
+        <v>232</v>
+      </c>
+      <c r="I5" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="L5" s="55">
+      <c r="L5" s="60">
         <f>SUM(N6:T6)</f>
         <v>10131.84</v>
       </c>
@@ -6193,18 +6201,18 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
       <c r="M6" s="26" t="s">
         <v>158</v>
       </c>
@@ -6232,40 +6240,40 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="55" t="s">
+      <c r="A7" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="60">
         <v>5.4</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="60">
         <v>1000</v>
       </c>
-      <c r="H7" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="I7" s="55" t="s">
+      <c r="H7" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="I7" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="55" t="s">
+      <c r="J7" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="55" t="s">
+      <c r="K7" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="L7" s="55">
+      <c r="L7" s="60">
         <f>SUM(N8:T8)</f>
         <v>1080</v>
       </c>
@@ -6285,18 +6293,18 @@
       <c r="T7" s="26"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
       <c r="M8" s="29" t="s">
         <v>127</v>
       </c>
@@ -6313,38 +6321,38 @@
       <c r="T8" s="26"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="55" t="s">
+      <c r="A9" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="60">
         <v>5</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="60">
         <v>500</v>
       </c>
-      <c r="H9" s="57" t="s">
-        <v>235</v>
-      </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55" t="s">
+      <c r="H9" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="L9" s="55">
+      <c r="L9" s="60">
         <f>SUM(N10:T10)</f>
         <v>4035</v>
       </c>
@@ -6368,18 +6376,18 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
       <c r="M10" s="26" t="s">
         <v>167</v>
       </c>
@@ -6401,40 +6409,40 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="55" t="s">
+      <c r="A11" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="60">
         <v>5.4</v>
       </c>
-      <c r="G11" s="58">
+      <c r="G11" s="63">
         <v>900</v>
       </c>
-      <c r="H11" s="57" t="s">
-        <v>236</v>
-      </c>
-      <c r="I11" s="55" t="s">
+      <c r="H11" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="I11" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="J11" s="55" t="s">
+      <c r="J11" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="L11" s="55">
+      <c r="L11" s="60">
         <f>SUM(N12:T12)</f>
         <v>4953</v>
       </c>
@@ -6458,18 +6466,18 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
       <c r="M12" s="26" t="s">
         <v>169</v>
       </c>
@@ -6491,40 +6499,40 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="55" t="s">
+      <c r="A13" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="I13" s="55" t="s">
+      <c r="H13" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="I13" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="55" t="s">
+      <c r="J13" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="55" t="s">
+      <c r="K13" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="L13" s="55">
+      <c r="L13" s="60">
         <f>SUM(N14:T14)</f>
         <v>8091</v>
       </c>
@@ -6548,18 +6556,18 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
       <c r="M14" s="26" t="s">
         <v>169</v>
       </c>
@@ -6580,40 +6588,40 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="55" t="s">
+      <c r="A15" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="I15" s="55" t="s">
+      <c r="H15" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="I15" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="55" t="s">
+      <c r="J15" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="55" t="s">
+      <c r="K15" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="L15" s="55">
+      <c r="L15" s="60">
         <f>SUM(N16:T16)</f>
         <v>8191</v>
       </c>
@@ -6637,18 +6645,18 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
       <c r="M16" s="26" t="s">
         <v>169</v>
       </c>
@@ -6669,40 +6677,40 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="55" t="s">
+      <c r="A17" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="D17" s="55" t="s">
+      <c r="C17" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="57" t="s">
-        <v>239</v>
-      </c>
-      <c r="I17" s="55" t="s">
+      <c r="H17" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="I17" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="55" t="s">
+      <c r="J17" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="57" t="s">
-        <v>229</v>
-      </c>
-      <c r="L17" s="55">
+      <c r="K17" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="L17" s="60">
         <f>SUM(N18:T18)</f>
         <v>8191</v>
       </c>
@@ -6726,18 +6734,18 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
       <c r="M18" s="26" t="s">
         <v>169</v>
       </c>
@@ -6759,86 +6767,6 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="H5:H6"/>
@@ -6855,6 +6783,86 @@
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6863,13 +6871,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="10" ySplit="3" topLeftCell="M18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29:XFD29"/>
+      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6893,14 +6901,14 @@
     <col min="19" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -6910,17 +6918,17 @@
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>173</v>
+      <c r="D2" s="55" t="s">
+        <v>246</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>174</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>175</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>14</v>
@@ -6928,23 +6936,23 @@
       <c r="I2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>16</v>
+      <c r="J2" s="54" t="s">
+        <v>225</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>40</v>
@@ -6953,12 +6961,15 @@
         <v>56</v>
       </c>
       <c r="R2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="S2" s="66" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>181</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -6970,33 +6981,43 @@
       <c r="I3" s="5"/>
       <c r="J3" s="8"/>
       <c r="K3" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="L3" s="7">
+        <f>1850+S3</f>
+        <v>2500</v>
+      </c>
+      <c r="M3" s="55">
+        <f>2400+S3</f>
+        <v>3050</v>
+      </c>
+      <c r="N3" s="5">
+        <f>2400+S3</f>
+        <v>3050</v>
+      </c>
+      <c r="O3" s="5">
+        <f>2600+S3</f>
+        <v>3250</v>
+      </c>
+      <c r="P3" s="5">
+        <f>3350+S3</f>
+        <v>4000</v>
+      </c>
+      <c r="Q3" s="5">
+        <f>3450+S3</f>
+        <v>4100</v>
+      </c>
+      <c r="R3" s="5">
+        <f>3450+S3</f>
+        <v>4100</v>
+      </c>
+      <c r="S3" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>182</v>
-      </c>
-      <c r="L3" s="7">
-        <v>1850</v>
-      </c>
-      <c r="M3" s="5">
-        <v>2400</v>
-      </c>
-      <c r="N3" s="5">
-        <v>2400</v>
-      </c>
-      <c r="O3" s="5">
-        <v>2600</v>
-      </c>
-      <c r="P3" s="5">
-        <v>3350</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>3450</v>
-      </c>
-      <c r="R3" s="5">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>183</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -7008,31 +7029,41 @@
       <c r="I4" s="5"/>
       <c r="J4" s="8"/>
       <c r="K4" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L4" s="7">
-        <v>2750</v>
+        <f>2750+S4</f>
+        <v>3400</v>
       </c>
       <c r="M4" s="7">
-        <v>3650</v>
+        <f>3650+S4</f>
+        <v>4300</v>
       </c>
       <c r="N4" s="7">
-        <v>3650</v>
+        <f>3650+S4</f>
+        <v>4300</v>
       </c>
       <c r="O4" s="7">
-        <v>3950</v>
+        <f>3950+S4</f>
+        <v>4600</v>
       </c>
       <c r="P4" s="5">
-        <v>4750</v>
+        <f>4750+S4</f>
+        <v>5400</v>
       </c>
       <c r="Q4" s="5">
-        <v>4950</v>
+        <f>4950+S4</f>
+        <v>5600</v>
       </c>
       <c r="R4" s="5">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <f>4950+S4</f>
+        <v>5600</v>
+      </c>
+      <c r="S4" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -7046,57 +7077,57 @@
         <v>10</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>184</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>185</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>107</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J5" s="43">
         <f>D5*O5</f>
-        <v>26000</v>
+        <v>32500</v>
       </c>
       <c r="K5" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L5" s="9">
         <f>L3</f>
-        <v>1850</v>
+        <v>2500</v>
       </c>
       <c r="M5" s="9">
         <f t="shared" ref="M5:R5" si="0">M3</f>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="N5" s="9">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="O5" s="9">
         <f t="shared" si="0"/>
-        <v>2600</v>
+        <v>3250</v>
       </c>
       <c r="P5" s="9">
         <f t="shared" si="0"/>
-        <v>3350</v>
+        <v>4000</v>
       </c>
       <c r="Q5" s="9">
         <f t="shared" si="0"/>
-        <v>3450</v>
+        <v>4100</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" si="0"/>
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -7110,57 +7141,57 @@
         <v>10</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>184</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>185</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>107</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J6" s="43">
         <f>D6*L6</f>
-        <v>18500</v>
+        <v>25000</v>
       </c>
       <c r="K6" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L6" s="9">
         <f t="shared" ref="L6:R6" si="1">L3</f>
-        <v>1850</v>
+        <v>2500</v>
       </c>
       <c r="M6" s="9">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="N6" s="9">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="O6" s="9">
         <f t="shared" si="1"/>
-        <v>2600</v>
+        <v>3250</v>
       </c>
       <c r="P6" s="9">
         <f t="shared" si="1"/>
-        <v>3350</v>
+        <v>4000</v>
       </c>
       <c r="Q6" s="9">
         <f t="shared" si="1"/>
-        <v>3450</v>
+        <v>4100</v>
       </c>
       <c r="R6" s="9">
         <f t="shared" si="1"/>
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -7174,57 +7205,57 @@
         <v>10</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>107</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J7" s="43">
         <f>D7*M7</f>
-        <v>36500</v>
+        <v>43000</v>
       </c>
       <c r="K7" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L7" s="9">
         <f t="shared" ref="L7:R7" si="2">L4</f>
-        <v>2750</v>
+        <v>3400</v>
       </c>
       <c r="M7" s="9">
         <f t="shared" si="2"/>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="N7" s="9">
         <f t="shared" si="2"/>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="O7" s="9">
         <f t="shared" si="2"/>
-        <v>3950</v>
+        <v>4600</v>
       </c>
       <c r="P7" s="9">
         <f t="shared" si="2"/>
-        <v>4750</v>
+        <v>5400</v>
       </c>
       <c r="Q7" s="9">
         <f t="shared" si="2"/>
-        <v>4950</v>
+        <v>5600</v>
       </c>
       <c r="R7" s="9">
         <f t="shared" si="2"/>
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
@@ -7238,57 +7269,57 @@
         <v>10</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>184</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>185</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>107</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J8" s="43">
         <f>D8*N8</f>
-        <v>24000</v>
+        <v>30500</v>
       </c>
       <c r="K8" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L8" s="9">
         <f t="shared" ref="L8:R8" si="3">L5</f>
-        <v>1850</v>
+        <v>2500</v>
       </c>
       <c r="M8" s="9">
         <f t="shared" si="3"/>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="N8" s="9">
         <f t="shared" si="3"/>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="O8" s="9">
         <f t="shared" si="3"/>
-        <v>2600</v>
+        <v>3250</v>
       </c>
       <c r="P8" s="9">
         <f t="shared" si="3"/>
-        <v>3350</v>
+        <v>4000</v>
       </c>
       <c r="Q8" s="9">
         <f t="shared" si="3"/>
-        <v>3450</v>
+        <v>4100</v>
       </c>
       <c r="R8" s="9">
         <f t="shared" si="3"/>
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>3</v>
       </c>
@@ -7302,57 +7333,57 @@
         <v>10</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>40</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>107</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J9" s="43">
         <f>D9*P9</f>
-        <v>47500</v>
+        <v>54000</v>
       </c>
       <c r="K9" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L9" s="9">
         <f>L4</f>
-        <v>2750</v>
+        <v>3400</v>
       </c>
       <c r="M9" s="9">
         <f t="shared" ref="M9:R9" si="4">M4</f>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="N9" s="9">
         <f t="shared" si="4"/>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="O9" s="9">
         <f t="shared" si="4"/>
-        <v>3950</v>
+        <v>4600</v>
       </c>
       <c r="P9" s="9">
         <f t="shared" si="4"/>
-        <v>4750</v>
+        <v>5400</v>
       </c>
       <c r="Q9" s="9">
         <f t="shared" si="4"/>
-        <v>4950</v>
+        <v>5600</v>
       </c>
       <c r="R9" s="9">
         <f t="shared" si="4"/>
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>3</v>
       </c>
@@ -7366,57 +7397,57 @@
         <v>10</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>56</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>107</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J10" s="43">
         <f>D10*Q10</f>
-        <v>34500</v>
+        <v>41000</v>
       </c>
       <c r="K10" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L10" s="9">
         <f>L5</f>
-        <v>1850</v>
+        <v>2500</v>
       </c>
       <c r="M10" s="9">
         <f t="shared" ref="M10:R10" si="5">M5</f>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="N10" s="9">
         <f t="shared" si="5"/>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="O10" s="9">
         <f t="shared" si="5"/>
-        <v>2600</v>
+        <v>3250</v>
       </c>
       <c r="P10" s="9">
         <f t="shared" si="5"/>
-        <v>3350</v>
+        <v>4000</v>
       </c>
       <c r="Q10" s="9">
         <f t="shared" si="5"/>
-        <v>3450</v>
+        <v>4100</v>
       </c>
       <c r="R10" s="9">
         <f t="shared" si="5"/>
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>3</v>
       </c>
@@ -7430,57 +7461,57 @@
         <v>10</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>107</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J11" s="43">
         <f>D11*R11</f>
-        <v>49500</v>
+        <v>56000</v>
       </c>
       <c r="K11" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L11" s="9">
         <f>L4</f>
-        <v>2750</v>
+        <v>3400</v>
       </c>
       <c r="M11" s="9">
         <f t="shared" ref="M11:R11" si="6">M4</f>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="N11" s="9">
         <f t="shared" si="6"/>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="O11" s="9">
         <f t="shared" si="6"/>
-        <v>3950</v>
+        <v>4600</v>
       </c>
       <c r="P11" s="9">
         <f t="shared" si="6"/>
-        <v>4750</v>
+        <v>5400</v>
       </c>
       <c r="Q11" s="9">
         <f t="shared" si="6"/>
-        <v>4950</v>
+        <v>5600</v>
       </c>
       <c r="R11" s="9">
         <f t="shared" si="6"/>
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>3</v>
       </c>
@@ -7494,57 +7525,57 @@
         <v>10</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H12" s="39" t="s">
         <v>107</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J12" s="44">
         <f>D12*O12</f>
-        <v>39500</v>
+        <v>46000</v>
       </c>
       <c r="K12" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L12" s="39">
         <f>L11</f>
-        <v>2750</v>
+        <v>3400</v>
       </c>
       <c r="M12" s="39">
         <f t="shared" ref="M12:R13" si="7">M11</f>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="N12" s="39">
         <f t="shared" si="7"/>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="O12" s="39">
         <f t="shared" si="7"/>
-        <v>3950</v>
+        <v>4600</v>
       </c>
       <c r="P12" s="39">
         <f t="shared" si="7"/>
-        <v>4750</v>
+        <v>5400</v>
       </c>
       <c r="Q12" s="39">
         <f t="shared" si="7"/>
-        <v>4950</v>
+        <v>5600</v>
       </c>
       <c r="R12" s="39">
         <f t="shared" si="7"/>
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>3</v>
       </c>
@@ -7558,57 +7589,57 @@
         <v>10</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H13" s="39" t="s">
         <v>107</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J13" s="44">
         <f>D13*L13</f>
-        <v>27500</v>
+        <v>34000</v>
       </c>
       <c r="K13" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L13" s="39">
         <f>L12</f>
-        <v>2750</v>
+        <v>3400</v>
       </c>
       <c r="M13" s="39">
         <f t="shared" si="7"/>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="N13" s="39">
         <f t="shared" si="7"/>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="O13" s="39">
         <f t="shared" si="7"/>
-        <v>3950</v>
+        <v>4600</v>
       </c>
       <c r="P13" s="39">
         <f t="shared" si="7"/>
-        <v>4750</v>
+        <v>5400</v>
       </c>
       <c r="Q13" s="39">
         <f t="shared" si="7"/>
-        <v>4950</v>
+        <v>5600</v>
       </c>
       <c r="R13" s="39">
         <f t="shared" si="7"/>
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
         <v>3</v>
       </c>
@@ -7622,57 +7653,57 @@
         <v>10</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H14" s="39" t="s">
         <v>107</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J14" s="44">
         <f>D14*M14</f>
-        <v>24000</v>
+        <v>30500</v>
       </c>
       <c r="K14" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L14" s="39">
         <f>L10</f>
-        <v>1850</v>
+        <v>2500</v>
       </c>
       <c r="M14" s="39">
         <f t="shared" ref="M14:R14" si="8">M10</f>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="N14" s="39">
         <f t="shared" si="8"/>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="O14" s="39">
         <f t="shared" si="8"/>
-        <v>2600</v>
+        <v>3250</v>
       </c>
       <c r="P14" s="39">
         <f t="shared" si="8"/>
-        <v>3350</v>
+        <v>4000</v>
       </c>
       <c r="Q14" s="39">
         <f t="shared" si="8"/>
-        <v>3450</v>
+        <v>4100</v>
       </c>
       <c r="R14" s="39">
         <f t="shared" si="8"/>
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>3</v>
       </c>
@@ -7686,57 +7717,57 @@
         <v>10</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H15" s="39" t="s">
         <v>107</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J15" s="44">
         <f>D15*N15</f>
-        <v>36500</v>
+        <v>43000</v>
       </c>
       <c r="K15" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L15" s="39">
         <f t="shared" ref="L15" si="9">L12</f>
-        <v>2750</v>
+        <v>3400</v>
       </c>
       <c r="M15" s="39">
         <f t="shared" ref="M15:R15" si="10">M12</f>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="N15" s="39">
         <f t="shared" si="10"/>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="O15" s="39">
         <f t="shared" si="10"/>
-        <v>3950</v>
+        <v>4600</v>
       </c>
       <c r="P15" s="39">
         <f t="shared" si="10"/>
-        <v>4750</v>
+        <v>5400</v>
       </c>
       <c r="Q15" s="39">
         <f t="shared" si="10"/>
-        <v>4950</v>
+        <v>5600</v>
       </c>
       <c r="R15" s="39">
         <f t="shared" si="10"/>
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>3</v>
       </c>
@@ -7750,54 +7781,54 @@
         <v>10</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F16" s="40" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H16" s="39" t="s">
         <v>107</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J16" s="44">
         <f>D16*P16</f>
-        <v>33500</v>
+        <v>40000</v>
       </c>
       <c r="K16" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L16" s="39">
         <f>L10</f>
-        <v>1850</v>
+        <v>2500</v>
       </c>
       <c r="M16" s="39">
         <f t="shared" ref="M16:R16" si="11">M10</f>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="N16" s="39">
         <f t="shared" si="11"/>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="O16" s="39">
         <f t="shared" si="11"/>
-        <v>2600</v>
+        <v>3250</v>
       </c>
       <c r="P16" s="39">
         <f t="shared" si="11"/>
-        <v>3350</v>
+        <v>4000</v>
       </c>
       <c r="Q16" s="39">
         <f t="shared" si="11"/>
-        <v>3450</v>
+        <v>4100</v>
       </c>
       <c r="R16" s="39">
         <f t="shared" si="11"/>
-        <v>3450</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.3">
@@ -7814,54 +7845,54 @@
         <v>10</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F17" s="40" t="s">
         <v>56</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>107</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J17" s="44">
         <f>D17*Q17</f>
-        <v>49500</v>
+        <v>56000</v>
       </c>
       <c r="K17" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L17" s="39">
         <f>L12</f>
-        <v>2750</v>
+        <v>3400</v>
       </c>
       <c r="M17" s="39">
         <f t="shared" ref="M17:R17" si="12">M12</f>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="N17" s="39">
         <f t="shared" si="12"/>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="O17" s="39">
         <f t="shared" si="12"/>
-        <v>3950</v>
+        <v>4600</v>
       </c>
       <c r="P17" s="39">
         <f t="shared" si="12"/>
-        <v>4750</v>
+        <v>5400</v>
       </c>
       <c r="Q17" s="39">
         <f t="shared" si="12"/>
-        <v>4950</v>
+        <v>5600</v>
       </c>
       <c r="R17" s="39">
         <f t="shared" si="12"/>
-        <v>4950</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.3">
@@ -7878,54 +7909,54 @@
         <v>10</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>107</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J18" s="44">
         <f>D18*R18</f>
-        <v>34500</v>
+        <v>41000</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L18" s="39">
         <f>L10</f>
-        <v>1850</v>
+        <v>2500</v>
       </c>
       <c r="M18" s="39">
         <f t="shared" ref="M18:R18" si="13">M10</f>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="N18" s="39">
         <f t="shared" si="13"/>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="O18" s="39">
         <f t="shared" si="13"/>
-        <v>2600</v>
+        <v>3250</v>
       </c>
       <c r="P18" s="39">
         <f t="shared" si="13"/>
-        <v>3350</v>
+        <v>4000</v>
       </c>
       <c r="Q18" s="39">
         <f t="shared" si="13"/>
-        <v>3450</v>
+        <v>4100</v>
       </c>
       <c r="R18" s="39">
         <f t="shared" si="13"/>
-        <v>3450</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -7942,54 +7973,54 @@
         <v>10</v>
       </c>
       <c r="E19" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>184</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>185</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>107</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J19" s="43">
         <f>D19*O19</f>
-        <v>26000</v>
+        <v>32500</v>
       </c>
       <c r="K19" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L19" s="9">
         <f>L17</f>
-        <v>2750</v>
+        <v>3400</v>
       </c>
       <c r="M19" s="9">
         <f>M5</f>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="N19" s="9">
         <f t="shared" ref="N19:R19" si="14">N5</f>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="O19" s="9">
         <f t="shared" si="14"/>
-        <v>2600</v>
+        <v>3250</v>
       </c>
       <c r="P19" s="9">
         <f t="shared" si="14"/>
-        <v>3350</v>
+        <v>4000</v>
       </c>
       <c r="Q19" s="9">
         <f t="shared" si="14"/>
-        <v>3450</v>
+        <v>4100</v>
       </c>
       <c r="R19" s="9">
         <f t="shared" si="14"/>
-        <v>3450</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
@@ -8006,54 +8037,54 @@
         <v>10</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>184</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>185</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>107</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J20" s="43">
         <f>D20*L20</f>
-        <v>27500</v>
+        <v>34000</v>
       </c>
       <c r="K20" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L20" s="9">
         <f t="shared" ref="L20" si="15">L17</f>
-        <v>2750</v>
+        <v>3400</v>
       </c>
       <c r="M20" s="9">
         <f>M6</f>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="N20" s="9">
         <f t="shared" ref="N20:R20" si="16">N6</f>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="O20" s="9">
         <f t="shared" si="16"/>
-        <v>2600</v>
+        <v>3250</v>
       </c>
       <c r="P20" s="9">
         <f t="shared" si="16"/>
-        <v>3350</v>
+        <v>4000</v>
       </c>
       <c r="Q20" s="9">
         <f t="shared" si="16"/>
-        <v>3450</v>
+        <v>4100</v>
       </c>
       <c r="R20" s="9">
         <f t="shared" si="16"/>
-        <v>3450</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
@@ -8070,54 +8101,54 @@
         <v>10</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>107</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J21" s="43">
         <f>D21*M21</f>
-        <v>36500</v>
+        <v>43000</v>
       </c>
       <c r="K21" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L21" s="9">
         <f t="shared" ref="L21" si="17">L18</f>
-        <v>1850</v>
+        <v>2500</v>
       </c>
       <c r="M21" s="9">
         <f>M7</f>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="N21" s="9">
         <f t="shared" ref="N21:R21" si="18">N7</f>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="O21" s="9">
         <f t="shared" si="18"/>
-        <v>3950</v>
+        <v>4600</v>
       </c>
       <c r="P21" s="9">
         <f t="shared" si="18"/>
-        <v>4750</v>
+        <v>5400</v>
       </c>
       <c r="Q21" s="9">
         <f t="shared" si="18"/>
-        <v>4950</v>
+        <v>5600</v>
       </c>
       <c r="R21" s="9">
         <f t="shared" si="18"/>
-        <v>4950</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
@@ -8134,54 +8165,54 @@
         <v>10</v>
       </c>
       <c r="E22" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>184</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>185</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>107</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J22" s="43">
         <f>D22*N22</f>
-        <v>24000</v>
+        <v>30500</v>
       </c>
       <c r="K22" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L22" s="9">
         <f t="shared" ref="L22" si="19">L19</f>
-        <v>2750</v>
+        <v>3400</v>
       </c>
       <c r="M22" s="9">
         <f t="shared" ref="M22:R32" si="20">M8</f>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="N22" s="9">
         <f t="shared" si="20"/>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="O22" s="9">
         <f t="shared" si="20"/>
-        <v>2600</v>
+        <v>3250</v>
       </c>
       <c r="P22" s="9">
         <f t="shared" si="20"/>
-        <v>3350</v>
+        <v>4000</v>
       </c>
       <c r="Q22" s="9">
         <f t="shared" si="20"/>
-        <v>3450</v>
+        <v>4100</v>
       </c>
       <c r="R22" s="9">
         <f t="shared" si="20"/>
-        <v>3450</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
@@ -8198,54 +8229,54 @@
         <v>10</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>107</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J23" s="43">
         <f>D23*P23</f>
-        <v>47500</v>
+        <v>54000</v>
       </c>
       <c r="K23" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L23" s="9">
         <f>L18</f>
-        <v>1850</v>
+        <v>2500</v>
       </c>
       <c r="M23" s="9">
         <f t="shared" si="20"/>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="N23" s="9">
         <f t="shared" si="20"/>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="O23" s="9">
         <f t="shared" si="20"/>
-        <v>3950</v>
+        <v>4600</v>
       </c>
       <c r="P23" s="9">
         <f t="shared" si="20"/>
-        <v>4750</v>
+        <v>5400</v>
       </c>
       <c r="Q23" s="9">
         <f t="shared" si="20"/>
-        <v>4950</v>
+        <v>5600</v>
       </c>
       <c r="R23" s="9">
         <f t="shared" si="20"/>
-        <v>4950</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
@@ -8262,54 +8293,54 @@
         <v>10</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>56</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>107</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J24" s="43">
         <f>D24*Q24</f>
-        <v>34500</v>
+        <v>41000</v>
       </c>
       <c r="K24" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L24" s="9">
         <f>L19</f>
-        <v>2750</v>
+        <v>3400</v>
       </c>
       <c r="M24" s="9">
         <f t="shared" si="20"/>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="N24" s="9">
         <f t="shared" si="20"/>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="O24" s="9">
         <f t="shared" si="20"/>
-        <v>2600</v>
+        <v>3250</v>
       </c>
       <c r="P24" s="9">
         <f t="shared" si="20"/>
-        <v>3350</v>
+        <v>4000</v>
       </c>
       <c r="Q24" s="9">
         <f t="shared" si="20"/>
-        <v>3450</v>
+        <v>4100</v>
       </c>
       <c r="R24" s="9">
         <f t="shared" si="20"/>
-        <v>3450</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
@@ -8326,54 +8357,54 @@
         <v>10</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>107</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J25" s="43">
         <f>D25*R25</f>
-        <v>49500</v>
+        <v>56000</v>
       </c>
       <c r="K25" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L25" s="9">
         <f>L18</f>
-        <v>1850</v>
+        <v>2500</v>
       </c>
       <c r="M25" s="9">
         <f t="shared" si="20"/>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="N25" s="9">
         <f t="shared" si="20"/>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="O25" s="9">
         <f t="shared" si="20"/>
-        <v>3950</v>
+        <v>4600</v>
       </c>
       <c r="P25" s="9">
         <f t="shared" si="20"/>
-        <v>4750</v>
+        <v>5400</v>
       </c>
       <c r="Q25" s="9">
         <f t="shared" si="20"/>
-        <v>4950</v>
+        <v>5600</v>
       </c>
       <c r="R25" s="9">
         <f t="shared" si="20"/>
-        <v>4950</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
@@ -8390,54 +8421,54 @@
         <v>10</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H26" s="39" t="s">
         <v>107</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J26" s="44">
         <f>D26*O26</f>
-        <v>39500</v>
+        <v>46000</v>
       </c>
       <c r="K26" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L26" s="39">
         <f>L25</f>
-        <v>1850</v>
+        <v>2500</v>
       </c>
       <c r="M26" s="9">
         <f t="shared" si="20"/>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="N26" s="9">
         <f t="shared" si="20"/>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="O26" s="9">
         <f t="shared" si="20"/>
-        <v>3950</v>
+        <v>4600</v>
       </c>
       <c r="P26" s="9">
         <f t="shared" si="20"/>
-        <v>4750</v>
+        <v>5400</v>
       </c>
       <c r="Q26" s="9">
         <f t="shared" si="20"/>
-        <v>4950</v>
+        <v>5600</v>
       </c>
       <c r="R26" s="9">
         <f t="shared" si="20"/>
-        <v>4950</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
@@ -8454,54 +8485,54 @@
         <v>10</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H27" s="39" t="s">
         <v>107</v>
       </c>
       <c r="I27" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J27" s="44">
         <f>D27*L27</f>
-        <v>18500</v>
+        <v>25000</v>
       </c>
       <c r="K27" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L27" s="39">
         <f>L26</f>
-        <v>1850</v>
+        <v>2500</v>
       </c>
       <c r="M27" s="9">
         <f t="shared" si="20"/>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="N27" s="9">
         <f t="shared" si="20"/>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="O27" s="9">
         <f t="shared" si="20"/>
-        <v>3950</v>
+        <v>4600</v>
       </c>
       <c r="P27" s="9">
         <f t="shared" si="20"/>
-        <v>4750</v>
+        <v>5400</v>
       </c>
       <c r="Q27" s="9">
         <f t="shared" si="20"/>
-        <v>4950</v>
+        <v>5600</v>
       </c>
       <c r="R27" s="9">
         <f t="shared" si="20"/>
-        <v>4950</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
@@ -8518,54 +8549,54 @@
         <v>10</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H28" s="39" t="s">
         <v>107</v>
       </c>
       <c r="I28" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J28" s="44">
         <f>D28*M28</f>
-        <v>24000</v>
+        <v>30500</v>
       </c>
       <c r="K28" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L28" s="39">
         <f>L24</f>
-        <v>2750</v>
+        <v>3400</v>
       </c>
       <c r="M28" s="9">
         <f t="shared" si="20"/>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="N28" s="9">
         <f t="shared" si="20"/>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="O28" s="9">
         <f t="shared" si="20"/>
-        <v>2600</v>
+        <v>3250</v>
       </c>
       <c r="P28" s="9">
         <f t="shared" si="20"/>
-        <v>3350</v>
+        <v>4000</v>
       </c>
       <c r="Q28" s="9">
         <f t="shared" si="20"/>
-        <v>3450</v>
+        <v>4100</v>
       </c>
       <c r="R28" s="9">
         <f t="shared" si="20"/>
-        <v>3450</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
@@ -8582,54 +8613,54 @@
         <v>10</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H29" s="39" t="s">
         <v>107</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J29" s="44">
         <f>D29*N29</f>
-        <v>36500</v>
+        <v>43000</v>
       </c>
       <c r="K29" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L29" s="39">
         <f t="shared" ref="L29" si="21">L26</f>
-        <v>1850</v>
+        <v>2500</v>
       </c>
       <c r="M29" s="9">
         <f t="shared" si="20"/>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="N29" s="9">
         <f t="shared" si="20"/>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="O29" s="9">
         <f t="shared" si="20"/>
-        <v>3950</v>
+        <v>4600</v>
       </c>
       <c r="P29" s="9">
         <f t="shared" si="20"/>
-        <v>4750</v>
+        <v>5400</v>
       </c>
       <c r="Q29" s="9">
         <f t="shared" si="20"/>
-        <v>4950</v>
+        <v>5600</v>
       </c>
       <c r="R29" s="9">
         <f t="shared" si="20"/>
-        <v>4950</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
@@ -8646,54 +8677,54 @@
         <v>10</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F30" s="40" t="s">
         <v>40</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H30" s="39" t="s">
         <v>107</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J30" s="44">
         <f>D30*P30</f>
-        <v>33500</v>
+        <v>40000</v>
       </c>
       <c r="K30" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L30" s="39">
         <f>L24</f>
-        <v>2750</v>
+        <v>3400</v>
       </c>
       <c r="M30" s="9">
         <f t="shared" si="20"/>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="N30" s="9">
         <f t="shared" si="20"/>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="O30" s="9">
         <f t="shared" si="20"/>
-        <v>2600</v>
+        <v>3250</v>
       </c>
       <c r="P30" s="9">
         <f t="shared" si="20"/>
-        <v>3350</v>
+        <v>4000</v>
       </c>
       <c r="Q30" s="9">
         <f t="shared" si="20"/>
-        <v>3450</v>
+        <v>4100</v>
       </c>
       <c r="R30" s="9">
         <f t="shared" si="20"/>
-        <v>3450</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
@@ -8710,54 +8741,54 @@
         <v>10</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F31" s="40" t="s">
         <v>56</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H31" s="39" t="s">
         <v>107</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J31" s="44">
         <f>D31*Q31</f>
-        <v>49500</v>
+        <v>56000</v>
       </c>
       <c r="K31" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L31" s="39">
         <f>L26</f>
-        <v>1850</v>
+        <v>2500</v>
       </c>
       <c r="M31" s="9">
         <f t="shared" si="20"/>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="N31" s="9">
         <f t="shared" si="20"/>
-        <v>3650</v>
+        <v>4300</v>
       </c>
       <c r="O31" s="9">
         <f t="shared" si="20"/>
-        <v>3950</v>
+        <v>4600</v>
       </c>
       <c r="P31" s="9">
         <f t="shared" si="20"/>
-        <v>4750</v>
+        <v>5400</v>
       </c>
       <c r="Q31" s="9">
         <f t="shared" si="20"/>
-        <v>4950</v>
+        <v>5600</v>
       </c>
       <c r="R31" s="9">
         <f t="shared" si="20"/>
-        <v>4950</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
@@ -8774,54 +8805,54 @@
         <v>10</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G32" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H32" s="39" t="s">
         <v>107</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J32" s="44">
         <f>D32*R32</f>
-        <v>34500</v>
+        <v>41000</v>
       </c>
       <c r="K32" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L32" s="39">
         <f>L24</f>
-        <v>2750</v>
+        <v>3400</v>
       </c>
       <c r="M32" s="9">
         <f t="shared" si="20"/>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="N32" s="9">
         <f t="shared" si="20"/>
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="O32" s="9">
         <f t="shared" si="20"/>
-        <v>2600</v>
+        <v>3250</v>
       </c>
       <c r="P32" s="9">
         <f t="shared" si="20"/>
-        <v>3350</v>
+        <v>4000</v>
       </c>
       <c r="Q32" s="9">
         <f t="shared" si="20"/>
-        <v>3450</v>
+        <v>4100</v>
       </c>
       <c r="R32" s="9">
         <f t="shared" si="20"/>
-        <v>3450</v>
+        <v>4100</v>
       </c>
     </row>
   </sheetData>
@@ -8835,11 +8866,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="10" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8921,64 +8952,64 @@
         <v>13</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="G2" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="64" t="s">
-        <v>243</v>
+      <c r="J2" s="54" t="s">
+        <v>242</v>
       </c>
       <c r="K2" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8997,54 +9028,54 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="Q3" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="U3" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="T3" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="X3" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="60" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>240</v>
+      <c r="B4" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>239</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E4" s="9">
         <v>8</v>
@@ -9108,16 +9139,16 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>216</v>
       </c>
       <c r="E5" s="9">
         <v>8</v>
@@ -9189,19 +9220,19 @@
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>241</v>
+      <c r="B6" s="52" t="s">
+        <v>240</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="60" t="s">
-        <v>245</v>
+      <c r="G6" s="52" t="s">
+        <v>244</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -9234,18 +9265,18 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>242</v>
+        <v>217</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>241</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="60" t="s">
-        <v>246</v>
+      <c r="G7" s="52" t="s">
+        <v>245</v>
       </c>
       <c r="H7" s="14">
         <v>10</v>
